--- a/tests/CoordinateCheckerTests/Sheets/TestSheet_util_result.xlsx
+++ b/tests/CoordinateCheckerTests/Sheets/TestSheet_util_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\PycharmProjects\Geolocation\Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\PycharmProjects\Geolocation\CoordinateCheckerTests\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +526,10 @@
         <v>42891</v>
       </c>
       <c r="I2">
+        <v>45.467039999999997</v>
+      </c>
+      <c r="J2">
         <v>8.8957999999999995</v>
-      </c>
-      <c r="J2">
-        <v>45.467039999999997</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -554,11 +554,11 @@
       <c r="G3" s="2">
         <v>42882</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
+        <v>45.468019499999997</v>
+      </c>
+      <c r="J3">
         <v>8.8923500999999998</v>
-      </c>
-      <c r="J3" s="3">
-        <v>45.468019499999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -584,10 +584,10 @@
         <v>42899</v>
       </c>
       <c r="I4">
+        <v>45.4653931</v>
+      </c>
+      <c r="J4">
         <v>8.8838428999999994</v>
-      </c>
-      <c r="J4">
-        <v>45.4653931</v>
       </c>
     </row>
   </sheetData>
@@ -596,12 +596,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,15 +825,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89ECE810-D0E9-4DA5-9B46-A84A7A56F574}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{329E2EB5-F237-4F22-8A0C-80E0D849D455}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3652809a-078f-4ce1-86ee-e4a946add5f2"/>
+    <ds:schemaRef ds:uri="0bbe7d74-8f18-4455-bcbe-03c409394a09"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -861,18 +870,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{329E2EB5-F237-4F22-8A0C-80E0D849D455}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89ECE810-D0E9-4DA5-9B46-A84A7A56F574}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3652809a-078f-4ce1-86ee-e4a946add5f2"/>
-    <ds:schemaRef ds:uri="0bbe7d74-8f18-4455-bcbe-03c409394a09"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>